--- a/5yr_Projections/Excel Worksheets/QYLD.xlsx
+++ b/5yr_Projections/Excel Worksheets/QYLD.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke.campbell\Documents\GitHub\Stock_Analysis_Projects\5yr_Projections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke.campbell\Documents\GitHub\Stock_Analysis_Projects\5yr_Projections\Excel Worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C22A4BF8-6605-4A52-A649-4A4E0F3EF150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26F91E5-185F-437C-99DE-AD51D077EB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36405" yWindow="2850" windowWidth="14475" windowHeight="10035"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="QYLD" sheetId="1" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
+    <sheet name="QYLD" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Sum of Div_Returned</t>
   </si>
   <si>
     <t>Sum of Funds Invested</t>
@@ -36,11 +37,26 @@
   <si>
     <t>Grand Total</t>
   </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Dividends Returned</t>
+  </si>
+  <si>
+    <t>Funds Invested</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Sum of Dividends Returned</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -518,8 +534,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -576,6 +597,2839 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[QYLD.xlsx]Dashboard!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>QYLD Truncated 5yr Investment Summary</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Dividends Returned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$A$4:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$4:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119.337294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>254.26842730000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>406.83105139999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>579.32907850000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>774.36747360000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>994.89159299999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1244.2316639999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1526.1530749999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1844.9132400000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2205.3258900000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2612.8337660000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3057.7361470000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3576.6287219999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4163.3251419999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4826.6853570000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5576.7270449999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6424.7769019999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7383.6416829999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8467.8016060000009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9693.6290260000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11079.63567</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12646.75222</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14418.644340000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16334.57783</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18588.359209999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21136.64287</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24017.911499999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27275.676350000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30959.134290000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35123.910759999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39832.899799999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45157.213830000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51177.257530000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>57983.942110000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65680.05816</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>73983.281510000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>83770.035950000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>94835.628469999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>107347.1652</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>121493.58809999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>137488.52830000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>155573.53200000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>176021.70850000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>199141.8542</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>225283.11610000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>254840.26439999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CE4-482B-B43E-3A8672428115}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Funds Invested</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$A$4:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$C$4:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8CE4-482B-B43E-3A8672428115}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Equity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$A$4:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$D$4:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2130.670294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3409.0856079999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4854.5518259999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6488.8975410000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8336.8036900000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10426.17628</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12788.567800000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15459.653710000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18479.771209999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21894.528350000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25622.636849999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29970.75434</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34887.041620000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40445.741600000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46730.79855</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53837.125740000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61872.038780000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70956.876279999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>81228.832169999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>92843.027549999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>105974.8533</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120822.6185</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>136877.39420000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>155763.2035</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>177116.82709999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>201260.73499999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>228559.5344</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>259425.47589999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>294324.67910000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>333784.1715</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>378399.84730000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>428845.46659999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>485882.82980000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>550373.28200000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>619951.05660000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>701960.24340000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>794685.59479999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>899527.39509999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1018068.904</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1152100.267</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1303645.548</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1474993.2949999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1668731.1029999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1887784.686</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2135462.0660000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2415503.5219999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8CE4-482B-B43E-3A8672428115}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="376187183"/>
+        <c:axId val="376186351"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="376187183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376186351"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="376186351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="75000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dollars</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376187183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>44449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FAF7C25-E9D3-4975-9967-9F4FC88BD1AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Luke Campbell" refreshedDate="44505.382160879628" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="48" xr:uid="{5721D61B-B9D5-451C-9D3E-3FF8C96311EC}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D49" sheet="QYLD"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="47" count="48">
+        <n v="0"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+        <n v="15"/>
+        <n v="16"/>
+        <n v="17"/>
+        <n v="18"/>
+        <n v="19"/>
+        <n v="20"/>
+        <n v="21"/>
+        <n v="22"/>
+        <n v="23"/>
+        <n v="24"/>
+        <n v="25"/>
+        <n v="26"/>
+        <n v="27"/>
+        <n v="28"/>
+        <n v="29"/>
+        <n v="30"/>
+        <n v="31"/>
+        <n v="32"/>
+        <n v="33"/>
+        <n v="34"/>
+        <n v="35"/>
+        <n v="36"/>
+        <n v="37"/>
+        <n v="38"/>
+        <n v="39"/>
+        <n v="40"/>
+        <n v="41"/>
+        <n v="42"/>
+        <n v="43"/>
+        <n v="44"/>
+        <n v="45"/>
+        <n v="46"/>
+        <n v="47"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Dividends Returned" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="254840.26439999999"/>
+    </cacheField>
+    <cacheField name="Funds Invested" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="47000"/>
+    </cacheField>
+    <cacheField name="Equity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="2415503.5219999999"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="48">
+  <r>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="1000"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="119.337294"/>
+    <n v="2000"/>
+    <n v="2130.670294"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="254.26842730000001"/>
+    <n v="3000"/>
+    <n v="3409.0856079999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="406.83105139999998"/>
+    <n v="4000"/>
+    <n v="4854.5518259999999"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="579.32907850000004"/>
+    <n v="5000"/>
+    <n v="6488.8975410000003"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="774.36747360000004"/>
+    <n v="6000"/>
+    <n v="8336.8036900000006"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="994.89159299999994"/>
+    <n v="7000"/>
+    <n v="10426.17628"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="1244.2316639999999"/>
+    <n v="8000"/>
+    <n v="12788.567800000001"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1526.1530749999999"/>
+    <n v="9000"/>
+    <n v="15459.653710000001"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1844.9132400000001"/>
+    <n v="10000"/>
+    <n v="18479.771209999999"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2205.3258900000001"/>
+    <n v="11000"/>
+    <n v="21894.528350000001"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="2612.8337660000002"/>
+    <n v="12000"/>
+    <n v="25622.636849999999"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="3057.7361470000001"/>
+    <n v="13000"/>
+    <n v="29970.75434"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="3576.6287219999999"/>
+    <n v="14000"/>
+    <n v="34887.041620000004"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="4163.3251419999997"/>
+    <n v="15000"/>
+    <n v="40445.741600000001"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="4826.6853570000003"/>
+    <n v="16000"/>
+    <n v="46730.79855"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="5576.7270449999996"/>
+    <n v="17000"/>
+    <n v="53837.125740000003"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="6424.7769019999996"/>
+    <n v="18000"/>
+    <n v="61872.038780000003"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="7383.6416829999998"/>
+    <n v="19000"/>
+    <n v="70956.876279999997"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="8467.8016060000009"/>
+    <n v="20000"/>
+    <n v="81228.832169999994"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="9693.6290260000005"/>
+    <n v="21000"/>
+    <n v="92843.027549999999"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="11079.63567"/>
+    <n v="22000"/>
+    <n v="105974.8533"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="12646.75222"/>
+    <n v="23000"/>
+    <n v="120822.6185"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="14418.644340000001"/>
+    <n v="24000"/>
+    <n v="136877.39420000001"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="16334.57783"/>
+    <n v="25000"/>
+    <n v="155763.2035"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="18588.359209999999"/>
+    <n v="26000"/>
+    <n v="177116.82709999999"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="21136.64287"/>
+    <n v="27000"/>
+    <n v="201260.73499999999"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="24017.911499999998"/>
+    <n v="28000"/>
+    <n v="228559.5344"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="27275.676350000002"/>
+    <n v="29000"/>
+    <n v="259425.47589999999"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="30959.134290000002"/>
+    <n v="30000"/>
+    <n v="294324.67910000001"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="35123.910759999999"/>
+    <n v="31000"/>
+    <n v="333784.1715"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="39832.899799999999"/>
+    <n v="32000"/>
+    <n v="378399.84730000002"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="45157.213830000001"/>
+    <n v="33000"/>
+    <n v="428845.46659999999"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <n v="51177.257530000003"/>
+    <n v="34000"/>
+    <n v="485882.82980000001"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="57983.942110000004"/>
+    <n v="35000"/>
+    <n v="550373.28200000001"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <n v="65680.05816"/>
+    <n v="36000"/>
+    <n v="619951.05660000001"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <n v="73983.281510000001"/>
+    <n v="37000"/>
+    <n v="701960.24340000004"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="83770.035950000005"/>
+    <n v="38000"/>
+    <n v="794685.59479999996"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <n v="94835.628469999996"/>
+    <n v="39000"/>
+    <n v="899527.39509999997"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <n v="107347.1652"/>
+    <n v="40000"/>
+    <n v="1018068.904"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <n v="121493.58809999999"/>
+    <n v="41000"/>
+    <n v="1152100.267"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <n v="137488.52830000001"/>
+    <n v="42000"/>
+    <n v="1303645.548"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <n v="155573.53200000001"/>
+    <n v="43000"/>
+    <n v="1474993.2949999999"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <n v="176021.70850000001"/>
+    <n v="44000"/>
+    <n v="1668731.1029999999"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <n v="199141.8542"/>
+    <n v="45000"/>
+    <n v="1887784.686"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <n v="225283.11610000001"/>
+    <n v="46000"/>
+    <n v="2135462.0660000001"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <n v="254840.26439999999"/>
+    <n v="47000"/>
+    <n v="2415503.5219999999"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F4002B3D-B135-4FEC-8F21-97584A16153C}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:D52" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="49">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="49">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of Dividends Returned" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Funds Invested" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Equity" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -874,27 +3728,749 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E33B37-392A-4ABA-9901-B40DDAD769D0}">
+  <dimension ref="A3:D52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>119.337294</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2130.670294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>254.26842730000001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3409.0856079999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>406.83105139999998</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4854.5518259999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>579.32907850000004</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6488.8975410000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <v>774.36747360000004</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8336.8036900000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>994.89159299999994</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10426.17628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1244.2316639999999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>12788.567800000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1526.1530749999999</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D13" s="3">
+        <v>15459.653710000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1844.9132400000001</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>18479.771209999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2205.3258900000001</v>
+      </c>
+      <c r="C15" s="3">
+        <v>11000</v>
+      </c>
+      <c r="D15" s="3">
+        <v>21894.528350000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2612.8337660000002</v>
+      </c>
+      <c r="C16" s="3">
+        <v>12000</v>
+      </c>
+      <c r="D16" s="3">
+        <v>25622.636849999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3057.7361470000001</v>
+      </c>
+      <c r="C17" s="3">
+        <v>13000</v>
+      </c>
+      <c r="D17" s="3">
+        <v>29970.75434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3576.6287219999999</v>
+      </c>
+      <c r="C18" s="3">
+        <v>14000</v>
+      </c>
+      <c r="D18" s="3">
+        <v>34887.041620000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4163.3251419999997</v>
+      </c>
+      <c r="C19" s="3">
+        <v>15000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>40445.741600000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4826.6853570000003</v>
+      </c>
+      <c r="C20" s="3">
+        <v>16000</v>
+      </c>
+      <c r="D20" s="3">
+        <v>46730.79855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5576.7270449999996</v>
+      </c>
+      <c r="C21" s="3">
+        <v>17000</v>
+      </c>
+      <c r="D21" s="3">
+        <v>53837.125740000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3">
+        <v>6424.7769019999996</v>
+      </c>
+      <c r="C22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="D22" s="3">
+        <v>61872.038780000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3">
+        <v>7383.6416829999998</v>
+      </c>
+      <c r="C23" s="3">
+        <v>19000</v>
+      </c>
+      <c r="D23" s="3">
+        <v>70956.876279999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3">
+        <v>8467.8016060000009</v>
+      </c>
+      <c r="C24" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D24" s="3">
+        <v>81228.832169999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3">
+        <v>9693.6290260000005</v>
+      </c>
+      <c r="C25" s="3">
+        <v>21000</v>
+      </c>
+      <c r="D25" s="3">
+        <v>92843.027549999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>22</v>
+      </c>
+      <c r="B26" s="3">
+        <v>11079.63567</v>
+      </c>
+      <c r="C26" s="3">
+        <v>22000</v>
+      </c>
+      <c r="D26" s="3">
+        <v>105974.8533</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>23</v>
+      </c>
+      <c r="B27" s="3">
+        <v>12646.75222</v>
+      </c>
+      <c r="C27" s="3">
+        <v>23000</v>
+      </c>
+      <c r="D27" s="3">
+        <v>120822.6185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>24</v>
+      </c>
+      <c r="B28" s="3">
+        <v>14418.644340000001</v>
+      </c>
+      <c r="C28" s="3">
+        <v>24000</v>
+      </c>
+      <c r="D28" s="3">
+        <v>136877.39420000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3">
+        <v>16334.57783</v>
+      </c>
+      <c r="C29" s="3">
+        <v>25000</v>
+      </c>
+      <c r="D29" s="3">
+        <v>155763.2035</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>26</v>
+      </c>
+      <c r="B30" s="3">
+        <v>18588.359209999999</v>
+      </c>
+      <c r="C30" s="3">
+        <v>26000</v>
+      </c>
+      <c r="D30" s="3">
+        <v>177116.82709999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>27</v>
+      </c>
+      <c r="B31" s="3">
+        <v>21136.64287</v>
+      </c>
+      <c r="C31" s="3">
+        <v>27000</v>
+      </c>
+      <c r="D31" s="3">
+        <v>201260.73499999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>28</v>
+      </c>
+      <c r="B32" s="3">
+        <v>24017.911499999998</v>
+      </c>
+      <c r="C32" s="3">
+        <v>28000</v>
+      </c>
+      <c r="D32" s="3">
+        <v>228559.5344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>29</v>
+      </c>
+      <c r="B33" s="3">
+        <v>27275.676350000002</v>
+      </c>
+      <c r="C33" s="3">
+        <v>29000</v>
+      </c>
+      <c r="D33" s="3">
+        <v>259425.47589999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3">
+        <v>30959.134290000002</v>
+      </c>
+      <c r="C34" s="3">
+        <v>30000</v>
+      </c>
+      <c r="D34" s="3">
+        <v>294324.67910000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>31</v>
+      </c>
+      <c r="B35" s="3">
+        <v>35123.910759999999</v>
+      </c>
+      <c r="C35" s="3">
+        <v>31000</v>
+      </c>
+      <c r="D35" s="3">
+        <v>333784.1715</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>32</v>
+      </c>
+      <c r="B36" s="3">
+        <v>39832.899799999999</v>
+      </c>
+      <c r="C36" s="3">
+        <v>32000</v>
+      </c>
+      <c r="D36" s="3">
+        <v>378399.84730000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>33</v>
+      </c>
+      <c r="B37" s="3">
+        <v>45157.213830000001</v>
+      </c>
+      <c r="C37" s="3">
+        <v>33000</v>
+      </c>
+      <c r="D37" s="3">
+        <v>428845.46659999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3">
+        <v>51177.257530000003</v>
+      </c>
+      <c r="C38" s="3">
+        <v>34000</v>
+      </c>
+      <c r="D38" s="3">
+        <v>485882.82980000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>35</v>
+      </c>
+      <c r="B39" s="3">
+        <v>57983.942110000004</v>
+      </c>
+      <c r="C39" s="3">
+        <v>35000</v>
+      </c>
+      <c r="D39" s="3">
+        <v>550373.28200000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>36</v>
+      </c>
+      <c r="B40" s="3">
+        <v>65680.05816</v>
+      </c>
+      <c r="C40" s="3">
+        <v>36000</v>
+      </c>
+      <c r="D40" s="3">
+        <v>619951.05660000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>37</v>
+      </c>
+      <c r="B41" s="3">
+        <v>73983.281510000001</v>
+      </c>
+      <c r="C41" s="3">
+        <v>37000</v>
+      </c>
+      <c r="D41" s="3">
+        <v>701960.24340000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>38</v>
+      </c>
+      <c r="B42" s="3">
+        <v>83770.035950000005</v>
+      </c>
+      <c r="C42" s="3">
+        <v>38000</v>
+      </c>
+      <c r="D42" s="3">
+        <v>794685.59479999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>39</v>
+      </c>
+      <c r="B43" s="3">
+        <v>94835.628469999996</v>
+      </c>
+      <c r="C43" s="3">
+        <v>39000</v>
+      </c>
+      <c r="D43" s="3">
+        <v>899527.39509999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>40</v>
+      </c>
+      <c r="B44" s="3">
+        <v>107347.1652</v>
+      </c>
+      <c r="C44" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1018068.904</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>41</v>
+      </c>
+      <c r="B45" s="3">
+        <v>121493.58809999999</v>
+      </c>
+      <c r="C45" s="3">
+        <v>41000</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1152100.267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>42</v>
+      </c>
+      <c r="B46" s="3">
+        <v>137488.52830000001</v>
+      </c>
+      <c r="C46" s="3">
+        <v>42000</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1303645.548</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>43</v>
+      </c>
+      <c r="B47" s="3">
+        <v>155573.53200000001</v>
+      </c>
+      <c r="C47" s="3">
+        <v>43000</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1474993.2949999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>44</v>
+      </c>
+      <c r="B48" s="3">
+        <v>176021.70850000001</v>
+      </c>
+      <c r="C48" s="3">
+        <v>44000</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1668731.1029999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>45</v>
+      </c>
+      <c r="B49" s="3">
+        <v>199141.8542</v>
+      </c>
+      <c r="C49" s="3">
+        <v>45000</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1887784.686</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>46</v>
+      </c>
+      <c r="B50" s="3">
+        <v>225283.11610000001</v>
+      </c>
+      <c r="C50" s="3">
+        <v>46000</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2135462.0660000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>47</v>
+      </c>
+      <c r="B51" s="3">
+        <v>254840.26439999999</v>
+      </c>
+      <c r="C51" s="3">
+        <v>47000</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2415503.5219999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2166924.7533828001</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1128000</v>
+      </c>
+      <c r="D52" s="3">
+        <v>20573488.178889003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1571,7 +5147,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50">
         <v>2166924.7540000002</v>
